--- a/conc table.xlsx
+++ b/conc table.xlsx
@@ -3,24 +3,29 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9770DAE0-2948-42CD-BB3B-C1EDBF635506}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05431B41-7000-4177-AC77-16EBAD9B2013}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>A</t>
   </si>
@@ -44,6 +49,9 @@
   </si>
   <si>
     <t>Concentrations (µg m-3)</t>
+  </si>
+  <si>
+    <t>variability</t>
   </si>
 </sst>
 </file>
@@ -390,13 +398,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="10.59765625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A1" s="3" t="s">
@@ -683,6 +694,11 @@
       </c>
       <c r="G13" s="2">
         <v>2.8549066421430901E-11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
